--- a/biology/Médecine/1142_en_santé_et_médecine/1142_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1142_en_santé_et_médecine/1142_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1142_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1142_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1142 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1142_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1142_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,14 +523,16 @@
           <t>Fondations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Fondation par Hugues II, duc de Bourgogne, de la maladrerie ou maison-Dieu de Meursault, qui sera réunie à l'hôtel-Dieu de Beaune en 1766[1].
-Simone del Vasto (it), comte normand de Butera, fonde le premier hôpital de Piazza Armerina, dans l'actuelle province d'Enna, en Sicile, établissement destiné à l'accueil des voyageurs et des pèlerins et géré par des frères de l'ordre de Saint-Jacques d'Altopascio (it)[2].
-À Cambrai, principauté ecclésiastique du Saint-Empire, « fondation d'une humble léproserie, que l'on appell[e] le Petit-Cantimpré, et qui [sera] réunie, au XIIIe siècle, au monastère de ce nom[3] ».
-Un hospice de voyageurs est mentionné au col du Grimsel, dans les Alpes[4].
-Première mention de l'ordre de Saint-Lazare[5], hospitaliers voués à l'accueil et aux soins des pèlerins atteints de la lèpre, et dont la fondation remonte peut-être à 1112[6],[7].
-1142 ou 1145 : fondation de l'hôpital S. Giacomo de Folignano dans la région de Plaisance, en Italie[8].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Fondation par Hugues II, duc de Bourgogne, de la maladrerie ou maison-Dieu de Meursault, qui sera réunie à l'hôtel-Dieu de Beaune en 1766.
+Simone del Vasto (it), comte normand de Butera, fonde le premier hôpital de Piazza Armerina, dans l'actuelle province d'Enna, en Sicile, établissement destiné à l'accueil des voyageurs et des pèlerins et géré par des frères de l'ordre de Saint-Jacques d'Altopascio (it).
+À Cambrai, principauté ecclésiastique du Saint-Empire, « fondation d'une humble léproserie, que l'on appell[e] le Petit-Cantimpré, et qui [sera] réunie, au XIIIe siècle, au monastère de ce nom ».
+Un hospice de voyageurs est mentionné au col du Grimsel, dans les Alpes.
+Première mention de l'ordre de Saint-Lazare, hospitaliers voués à l'accueil et aux soins des pèlerins atteints de la lèpre, et dont la fondation remonte peut-être à 1112,.
+1142 ou 1145 : fondation de l'hôpital S. Giacomo de Folignano dans la région de Plaisance, en Italie.</t>
         </is>
       </c>
     </row>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1142_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1142_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,9 +560,11 @@
           <t>Personnalité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Fl. Jourdain, médecin, cité dans une donation de Mathieu Ier, duc de Lorraine, aux moniales de Notre-Dame de Tart[9].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Fl. Jourdain, médecin, cité dans une donation de Mathieu Ier, duc de Lorraine, aux moniales de Notre-Dame de Tart.</t>
         </is>
       </c>
     </row>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1142_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1142_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,9 +592,11 @@
           <t>Naissance</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Avenzoar le Jeune (mort en 1216), médecin et poète à la cour des princes almohades, fils et disciple d'Avenzoar[10].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Avenzoar le Jeune (mort en 1216), médecin et poète à la cour des princes almohades, fils et disciple d'Avenzoar.
 </t>
         </is>
       </c>
